--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44958</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44959</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45150</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43500</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43504</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43698</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>44244</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44483</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44860</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45103</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>45117</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43327</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43349</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43350</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43354</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43355</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43360</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43378</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43388</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43395</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43411</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43413</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43414</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43416</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43430</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43447</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43468</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43469</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>43473</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43487</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>43493</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43500</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>43502</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43530</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43531</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43538</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43542</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43544</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43569</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43578</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43581</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43587</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43595</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43600</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43613</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43614</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43621</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43626</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43628</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43630</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43634</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>43647</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43648</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43654</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43655</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43668</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>43675</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>43676</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43684</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43686</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43689</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43690</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43691</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43693</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43700</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43718</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43720</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43724</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43725</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43734</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43739</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43740</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43748</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43752</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43753</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43754</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43755</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43759</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43766</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>43768</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>43776</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43782</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43795</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43804</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43809</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43811</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>43812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>43817</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>43818</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>43843</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43844</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43887</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43890</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43910</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43914</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>43916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>43919</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>43927</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43959</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43976</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>43987</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44004</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44025</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44026</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44034</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18011,7 +18011,7 @@
         <v>44049</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>44050</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>44055</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44058</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44070</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44081</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44091</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44092</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>44095</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44102</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44104</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>44109</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44113</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44130</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44144</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44200</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>44272</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>44321</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44358</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>44366</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44399</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>44405</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>44410</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44426</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44427</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24566,7 +24566,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32232,7 +32232,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32604,7 +32604,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y530"/>
+  <dimension ref="A1:Y532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33791,7 +33791,7 @@
       </c>
       <c r="R529" s="2" t="inlineStr"/>
     </row>
-    <row r="530">
+    <row r="530" ht="15" customHeight="1">
       <c r="A530" t="inlineStr">
         <is>
           <t>A 40498-2023</t>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33852,6 +33852,130 @@
         <v>0</v>
       </c>
       <c r="R530" s="2" t="inlineStr"/>
+    </row>
+    <row r="531" ht="15" customHeight="1">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>A 42562-2023</t>
+        </is>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C531" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" t="n">
+        <v>0</v>
+      </c>
+      <c r="O531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R531" s="2" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>A 42568-2023</t>
+        </is>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C532" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" t="n">
+        <v>0</v>
+      </c>
+      <c r="O532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R532" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -647,27 +647,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 37121-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 37121-2019.xlsx", "A 37121-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 37121-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 37121-2019.png", "A 37121-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 37121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 37121-2019.docx", "A 37121-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 37121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 37121-2019.docx", "A 37121-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 37121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 37121-2019.docx", "A 37121-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 37121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 37121-2019.docx", "A 37121-2019")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 22062-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 22062-2020.xlsx", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 22062-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 22062-2020.png", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/knärot/A 22062-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/knärot/A 22062-2020.png", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 22062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 22062-2020.docx", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 22062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 22062-2020.docx", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 22062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 22062-2020.docx", "A 22062-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 22062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 22062-2020.docx", "A 22062-2020")</f>
         <v/>
       </c>
     </row>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,31 +869,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 22218-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 22218-2020.xlsx", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 22218-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 22218-2020.png", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/knärot/A 22218-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/knärot/A 22218-2020.png", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 22218-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 22218-2020.docx", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 22218-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 22218-2020.docx", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 22218-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 22218-2020.docx", "A 22218-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 22218-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 22218-2020.docx", "A 22218-2020")</f>
         <v/>
       </c>
     </row>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,27 +976,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 18212-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 18212-2020.xlsx", "A 18212-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 18212-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 18212-2020.png", "A 18212-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 18212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 18212-2020.docx", "A 18212-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 18212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 18212-2020.docx", "A 18212-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 18212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 18212-2020.docx", "A 18212-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 18212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 18212-2020.docx", "A 18212-2020")</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,27 +1079,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 28452-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 28452-2020.xlsx", "A 28452-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 28452-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 28452-2020.png", "A 28452-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 28452-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 28452-2020.docx", "A 28452-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 28452-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 28452-2020.docx", "A 28452-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 28452-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 28452-2020.docx", "A 28452-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 28452-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 28452-2020.docx", "A 28452-2020")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,27 +1179,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 30926-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 30926-2019.xlsx", "A 30926-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 30926-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 30926-2019.png", "A 30926-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 30926-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 30926-2019.docx", "A 30926-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 30926-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 30926-2019.docx", "A 30926-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 30926-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 30926-2019.docx", "A 30926-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 30926-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 30926-2019.docx", "A 30926-2019")</f>
         <v/>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1274,27 +1274,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 26670-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 26670-2022.xlsx", "A 26670-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 26670-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 26670-2022.png", "A 26670-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 26670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 26670-2022.docx", "A 26670-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 26670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 26670-2022.docx", "A 26670-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 26670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 26670-2022.docx", "A 26670-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 26670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 26670-2022.docx", "A 26670-2022")</f>
         <v/>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,27 +1366,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 7810-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 7810-2019.xlsx", "A 7810-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 7810-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 7810-2019.png", "A 7810-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 7810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 7810-2019.docx", "A 7810-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 7810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 7810-2019.docx", "A 7810-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 7810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 7810-2019.docx", "A 7810-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 7810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 7810-2019.docx", "A 7810-2019")</f>
         <v/>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,27 +1463,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36345-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36345-2022.xlsx", "A 36345-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36345-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36345-2022.png", "A 36345-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36345-2022.docx", "A 36345-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36345-2022.docx", "A 36345-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36345-2022.docx", "A 36345-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36345-2022.docx", "A 36345-2022")</f>
         <v/>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,27 +1558,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 50289-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 50289-2018.xlsx", "A 50289-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 50289-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 50289-2018.png", "A 50289-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 50289-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 50289-2018.docx", "A 50289-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 50289-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 50289-2018.docx", "A 50289-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 50289-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 50289-2018.docx", "A 50289-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 50289-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 50289-2018.docx", "A 50289-2018")</f>
         <v/>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,27 +1653,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38323-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38323-2019.xlsx", "A 38323-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38323-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38323-2019.png", "A 38323-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38323-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38323-2019.docx", "A 38323-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38323-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38323-2019.docx", "A 38323-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38323-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38323-2019.docx", "A 38323-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38323-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38323-2019.docx", "A 38323-2019")</f>
         <v/>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,27 +1748,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38647-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38647-2019.xlsx", "A 38647-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38647-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38647-2019.png", "A 38647-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38647-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38647-2019.docx", "A 38647-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38647-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38647-2019.docx", "A 38647-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38647-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38647-2019.docx", "A 38647-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38647-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38647-2019.docx", "A 38647-2019")</f>
         <v/>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,27 +1843,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 19907-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 19907-2023.xlsx", "A 19907-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 19907-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 19907-2023.png", "A 19907-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 19907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 19907-2023.docx", "A 19907-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 19907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 19907-2023.docx", "A 19907-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 19907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 19907-2023.docx", "A 19907-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 19907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 19907-2023.docx", "A 19907-2023")</f>
         <v/>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,27 +1937,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 32492-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 32492-2019.xlsx", "A 32492-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 32492-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 32492-2019.png", "A 32492-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 32492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 32492-2019.docx", "A 32492-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 32492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 32492-2019.docx", "A 32492-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 32492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 32492-2019.docx", "A 32492-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 32492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 32492-2019.docx", "A 32492-2019")</f>
         <v/>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,27 +2031,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 56289-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 56289-2021.xlsx", "A 56289-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 56289-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 56289-2021.png", "A 56289-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 56289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 56289-2021.docx", "A 56289-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 56289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 56289-2021.docx", "A 56289-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 56289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 56289-2021.docx", "A 56289-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 56289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 56289-2021.docx", "A 56289-2021")</f>
         <v/>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2119,27 +2119,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 39612-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 39612-2021.xlsx", "A 39612-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 39612-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 39612-2021.png", "A 39612-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 39612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 39612-2021.docx", "A 39612-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 39612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 39612-2021.docx", "A 39612-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 39612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 39612-2021.docx", "A 39612-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 39612-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 39612-2021.docx", "A 39612-2021")</f>
         <v/>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,27 +2212,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 55208-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 55208-2022.xlsx", "A 55208-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 55208-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 55208-2022.png", "A 55208-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 55208-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 55208-2022.docx", "A 55208-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 55208-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 55208-2022.docx", "A 55208-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 55208-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 55208-2022.docx", "A 55208-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 55208-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 55208-2022.docx", "A 55208-2022")</f>
         <v/>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2299,27 +2299,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 35090-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 35090-2022.xlsx", "A 35090-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 35090-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 35090-2022.png", "A 35090-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 35090-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 35090-2022.docx", "A 35090-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 35090-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 35090-2022.docx", "A 35090-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 35090-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 35090-2022.docx", "A 35090-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 35090-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 35090-2022.docx", "A 35090-2022")</f>
         <v/>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2386,27 +2386,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 14482-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 14482-2023.xlsx", "A 14482-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 14482-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 14482-2023.png", "A 14482-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 14482-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 14482-2023.docx", "A 14482-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 14482-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 14482-2023.docx", "A 14482-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 14482-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 14482-2023.docx", "A 14482-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 14482-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 14482-2023.docx", "A 14482-2023")</f>
         <v/>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2478,27 +2478,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 24318-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 24318-2023.xlsx", "A 24318-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 24318-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 24318-2023.png", "A 24318-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 24318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 24318-2023.docx", "A 24318-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 24318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 24318-2023.docx", "A 24318-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 24318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 24318-2023.docx", "A 24318-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 24318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 24318-2023.docx", "A 24318-2023")</f>
         <v/>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 50085-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 50085-2018.xlsx", "A 50085-2018")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 50085-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 50085-2018.png", "A 50085-2018")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 50085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 50085-2018.docx", "A 50085-2018")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 50085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 50085-2018.docx", "A 50085-2018")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 50085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 50085-2018.docx", "A 50085-2018")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 50085-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 50085-2018.docx", "A 50085-2018")</f>
         <v/>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,27 +2660,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 65870-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 65870-2018.xlsx", "A 65870-2018")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 65870-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 65870-2018.png", "A 65870-2018")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 65870-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 65870-2018.docx", "A 65870-2018")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 65870-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 65870-2018.docx", "A 65870-2018")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 65870-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 65870-2018.docx", "A 65870-2018")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 65870-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 65870-2018.docx", "A 65870-2018")</f>
         <v/>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,27 +2751,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36554-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36554-2019.xlsx", "A 36554-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36554-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36554-2019.png", "A 36554-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36554-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36554-2019.docx", "A 36554-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36554-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36554-2019.docx", "A 36554-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36554-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36554-2019.docx", "A 36554-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36554-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36554-2019.docx", "A 36554-2019")</f>
         <v/>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,27 +2842,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38649-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 38649-2019.xlsx", "A 38649-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38649-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 38649-2019.png", "A 38649-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38649-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 38649-2019.docx", "A 38649-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38649-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 38649-2019.docx", "A 38649-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38649-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 38649-2019.docx", "A 38649-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38649-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 38649-2019.docx", "A 38649-2019")</f>
         <v/>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 55138-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 55138-2019.xlsx", "A 55138-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 55138-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 55138-2019.png", "A 55138-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 55138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 55138-2019.docx", "A 55138-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 55138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 55138-2019.docx", "A 55138-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 55138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 55138-2019.docx", "A 55138-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 55138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 55138-2019.docx", "A 55138-2019")</f>
         <v/>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,27 +3019,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 59350-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 59350-2019.xlsx", "A 59350-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 59350-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 59350-2019.png", "A 59350-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 59350-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 59350-2019.docx", "A 59350-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 59350-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 59350-2019.docx", "A 59350-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 59350-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 59350-2019.docx", "A 59350-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 59350-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 59350-2019.docx", "A 59350-2019")</f>
         <v/>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3110,27 +3110,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 42548-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 42548-2021.xlsx", "A 42548-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 42548-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 42548-2021.png", "A 42548-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 42548-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 42548-2021.docx", "A 42548-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 42548-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 42548-2021.docx", "A 42548-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 42548-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 42548-2021.docx", "A 42548-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 42548-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 42548-2021.docx", "A 42548-2021")</f>
         <v/>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3201,27 +3201,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 5171-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 5171-2023.xlsx", "A 5171-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 5171-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 5171-2023.png", "A 5171-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 5171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 5171-2023.docx", "A 5171-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 5171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 5171-2023.docx", "A 5171-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 5171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 5171-2023.docx", "A 5171-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 5171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 5171-2023.docx", "A 5171-2023")</f>
         <v/>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3292,27 +3292,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 5288-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 5288-2023.xlsx", "A 5288-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 5288-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 5288-2023.png", "A 5288-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 5288-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 5288-2023.docx", "A 5288-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 5288-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 5288-2023.docx", "A 5288-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 5288-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 5288-2023.docx", "A 5288-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 5288-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 5288-2023.docx", "A 5288-2023")</f>
         <v/>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3383,27 +3383,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36252-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 36252-2023.xlsx", "A 36252-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36252-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 36252-2023.png", "A 36252-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 36252-2023.docx", "A 36252-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 36252-2023.docx", "A 36252-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 36252-2023.docx", "A 36252-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 36252-2023.docx", "A 36252-2023")</f>
         <v/>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3473,27 +3473,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 52392-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 52392-2018.xlsx", "A 52392-2018")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 52392-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 52392-2018.png", "A 52392-2018")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 52392-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 52392-2018.docx", "A 52392-2018")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 52392-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 52392-2018.docx", "A 52392-2018")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 52392-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 52392-2018.docx", "A 52392-2018")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 52392-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 52392-2018.docx", "A 52392-2018")</f>
         <v/>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3563,27 +3563,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 69408-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 69408-2018.xlsx", "A 69408-2018")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 69408-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 69408-2018.png", "A 69408-2018")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 69408-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 69408-2018.docx", "A 69408-2018")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 69408-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 69408-2018.docx", "A 69408-2018")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 69408-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 69408-2018.docx", "A 69408-2018")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 69408-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 69408-2018.docx", "A 69408-2018")</f>
         <v/>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3653,27 +3653,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 70079-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 70079-2018.xlsx", "A 70079-2018")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 70079-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 70079-2018.png", "A 70079-2018")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 70079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 70079-2018.docx", "A 70079-2018")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 70079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 70079-2018.docx", "A 70079-2018")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 70079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 70079-2018.docx", "A 70079-2018")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 70079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 70079-2018.docx", "A 70079-2018")</f>
         <v/>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3738,27 +3738,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 7822-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 7822-2019.xlsx", "A 7822-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 7822-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 7822-2019.png", "A 7822-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 7822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 7822-2019.docx", "A 7822-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 7822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 7822-2019.docx", "A 7822-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 7822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 7822-2019.docx", "A 7822-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 7822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 7822-2019.docx", "A 7822-2019")</f>
         <v/>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3823,27 +3823,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 9144-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 9144-2019.xlsx", "A 9144-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 9144-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 9144-2019.png", "A 9144-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 9144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 9144-2019.docx", "A 9144-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 9144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 9144-2019.docx", "A 9144-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 9144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 9144-2019.docx", "A 9144-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 9144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 9144-2019.docx", "A 9144-2019")</f>
         <v/>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3913,27 +3913,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 28204-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 28204-2019.xlsx", "A 28204-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 28204-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 28204-2019.png", "A 28204-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 28204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 28204-2019.docx", "A 28204-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 28204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 28204-2019.docx", "A 28204-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 28204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 28204-2019.docx", "A 28204-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 28204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 28204-2019.docx", "A 28204-2019")</f>
         <v/>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4003,27 +4003,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 41384-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 41384-2019.xlsx", "A 41384-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 41384-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 41384-2019.png", "A 41384-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 41384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 41384-2019.docx", "A 41384-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 41384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 41384-2019.docx", "A 41384-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 41384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 41384-2019.docx", "A 41384-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 41384-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 41384-2019.docx", "A 41384-2019")</f>
         <v/>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,27 +4093,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 52060-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 52060-2020.xlsx", "A 52060-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 52060-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 52060-2020.png", "A 52060-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 52060-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 52060-2020.docx", "A 52060-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 52060-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 52060-2020.docx", "A 52060-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 52060-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 52060-2020.docx", "A 52060-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 52060-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 52060-2020.docx", "A 52060-2020")</f>
         <v/>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,27 +4183,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 8351-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 8351-2021.xlsx", "A 8351-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 8351-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 8351-2021.png", "A 8351-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 8351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 8351-2021.docx", "A 8351-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 8351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 8351-2021.docx", "A 8351-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 8351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 8351-2021.docx", "A 8351-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 8351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 8351-2021.docx", "A 8351-2021")</f>
         <v/>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4273,27 +4273,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 45017-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 45017-2021.xlsx", "A 45017-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 45017-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 45017-2021.png", "A 45017-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 45017-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 45017-2021.docx", "A 45017-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 45017-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 45017-2021.docx", "A 45017-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 45017-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 45017-2021.docx", "A 45017-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 45017-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 45017-2021.docx", "A 45017-2021")</f>
         <v/>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4358,27 +4358,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 57535-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 57535-2021.xlsx", "A 57535-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 57535-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 57535-2021.png", "A 57535-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 57535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 57535-2021.docx", "A 57535-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 57535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 57535-2021.docx", "A 57535-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 57535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 57535-2021.docx", "A 57535-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 57535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 57535-2021.docx", "A 57535-2021")</f>
         <v/>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4448,27 +4448,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 49188-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 49188-2022.xlsx", "A 49188-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 49188-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 49188-2022.png", "A 49188-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 49188-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 49188-2022.docx", "A 49188-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 49188-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 49188-2022.docx", "A 49188-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 49188-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 49188-2022.docx", "A 49188-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 49188-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 49188-2022.docx", "A 49188-2022")</f>
         <v/>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,27 +4538,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 883-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 883-2023.xlsx", "A 883-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 883-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 883-2023.png", "A 883-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 883-2023.docx", "A 883-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 883-2023.docx", "A 883-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 883-2023.docx", "A 883-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 883-2023.docx", "A 883-2023")</f>
         <v/>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,27 +4623,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 27336-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 27336-2023.xlsx", "A 27336-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 27336-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 27336-2023.png", "A 27336-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 27336-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 27336-2023.docx", "A 27336-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 27336-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 27336-2023.docx", "A 27336-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 27336-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 27336-2023.docx", "A 27336-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 27336-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 27336-2023.docx", "A 27336-2023")</f>
         <v/>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4713,27 +4713,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 30746-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 30746-2023.xlsx", "A 30746-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 30746-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 30746-2023.png", "A 30746-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 30746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 30746-2023.docx", "A 30746-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 30746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 30746-2023.docx", "A 30746-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 30746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 30746-2023.docx", "A 30746-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 30746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 30746-2023.docx", "A 30746-2023")</f>
         <v/>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,27 +4803,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 33388-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/artfynd/A 33388-2023.xlsx", "A 33388-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 33388-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/kartor/A 33388-2023.png", "A 33388-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 33388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomål/A 33388-2023.docx", "A 33388-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 33388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/klagomålsmail/A 33388-2023.docx", "A 33388-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 33388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsyn/A 33388-2023.docx", "A 33388-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 33388-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GALLIVARE/tillsynsmail/A 33388-2023.docx", "A 33388-2023")</f>
         <v/>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43671</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43756</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>43773</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45150</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43500</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43698</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>44244</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45103</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45117</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43327</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43349</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43350</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43355</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43360</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43388</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43413</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43416</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43426</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43452</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43468</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43469</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43474</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43487</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43493</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43500</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43502</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43530</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43542</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43569</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43578</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43595</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43612</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>43613</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43621</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43626</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43628</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43630</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43647</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43654</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43655</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43668</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43675</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43684</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43686</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43690</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43691</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43700</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43718</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>43720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43724</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>43739</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>43740</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>43748</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43752</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43755</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43759</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43766</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>43768</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43795</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43804</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43811</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43812</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43817</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43843</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43910</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>43916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43919</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>43927</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>43959</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>43976</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43987</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44004</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44025</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44026</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44049</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44050</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44063</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44070</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44081</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44091</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44092</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44095</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44102</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44109</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44113</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44116</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44130</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44144</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44200</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44214</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44272</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44321</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44356</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44358</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44366</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44375</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44399</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44405</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44428</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44431</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44438</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44463</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44473</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44479</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44488</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>44494</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44505</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44522</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44525</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44529</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44551</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44575</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44587</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44609</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44616</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44624</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44636</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44651</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44672</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44684</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44697</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44712</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>44726</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44735</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>44741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44750</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44769</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44783</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44792</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>44798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44799</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44818</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44819</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44823</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44824</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44860</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44861</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44862</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44883</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44886</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44895</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44896</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44900</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44904</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44909</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44911</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44916</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>44922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44923</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44924</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44931</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44937</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44942</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44953</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44958</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44959</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44960</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29670,7 +29670,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44980</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44986</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>44992</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45002</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45015</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45027</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45030</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45033</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45050</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>45051</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45062</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45065</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45079</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45086</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45089</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45093</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33677,7 +33677,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y533"/>
+  <dimension ref="A1:Y534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
       </c>
       <c r="R532" s="2" t="inlineStr"/>
     </row>
-    <row r="533">
+    <row r="533" ht="15" customHeight="1">
       <c r="A533" t="inlineStr">
         <is>
           <t>A 43988-2023</t>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34068,6 +34068,68 @@
         <v>0</v>
       </c>
       <c r="R533" s="2" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>A 44983-2023</t>
+        </is>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C534" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" t="n">
+        <v>0</v>
+      </c>
+      <c r="O534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R534" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y534"/>
+  <dimension ref="A1:Y543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
       </c>
       <c r="R533" s="2" t="inlineStr"/>
     </row>
-    <row r="534">
+    <row r="534" ht="15" customHeight="1">
       <c r="A534" t="inlineStr">
         <is>
           <t>A 44983-2023</t>
@@ -34079,7 +34079,7 @@
         <v>45190</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34130,6 +34130,544 @@
         <v>0</v>
       </c>
       <c r="R534" s="2" t="inlineStr"/>
+    </row>
+    <row r="535" ht="15" customHeight="1">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>A 46056-2023</t>
+        </is>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C535" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" t="n">
+        <v>0</v>
+      </c>
+      <c r="O535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" s="2" t="inlineStr"/>
+    </row>
+    <row r="536" ht="15" customHeight="1">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>A 46271-2023</t>
+        </is>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C536" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" t="n">
+        <v>0</v>
+      </c>
+      <c r="O536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" s="2" t="inlineStr"/>
+    </row>
+    <row r="537" ht="15" customHeight="1">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>A 46334-2023</t>
+        </is>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C537" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" t="n">
+        <v>0</v>
+      </c>
+      <c r="O537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R537" s="2" t="inlineStr"/>
+    </row>
+    <row r="538" ht="15" customHeight="1">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>A 46478-2023</t>
+        </is>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C538" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N538" t="n">
+        <v>0</v>
+      </c>
+      <c r="O538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R538" s="2" t="inlineStr"/>
+    </row>
+    <row r="539" ht="15" customHeight="1">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>A 46474-2023</t>
+        </is>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C539" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" t="n">
+        <v>0</v>
+      </c>
+      <c r="O539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R539" s="2" t="inlineStr"/>
+    </row>
+    <row r="540" ht="15" customHeight="1">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>A 46484-2023</t>
+        </is>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C540" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N540" t="n">
+        <v>0</v>
+      </c>
+      <c r="O540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R540" s="2" t="inlineStr"/>
+    </row>
+    <row r="541" ht="15" customHeight="1">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>A 46855-2023</t>
+        </is>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C541" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N541" t="n">
+        <v>0</v>
+      </c>
+      <c r="O541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R541" s="2" t="inlineStr"/>
+    </row>
+    <row r="542" ht="15" customHeight="1">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>A 46854-2023</t>
+        </is>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C542" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G542" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N542" t="n">
+        <v>0</v>
+      </c>
+      <c r="O542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R542" s="2" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>A 46853-2023</t>
+        </is>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C543" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" t="n">
+        <v>0</v>
+      </c>
+      <c r="O543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R543" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y543"/>
+  <dimension ref="A1:Y546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45190</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45196</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45196</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45197</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45197</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45199</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45199</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
       </c>
       <c r="R542" s="2" t="inlineStr"/>
     </row>
-    <row r="543">
+    <row r="543" ht="15" customHeight="1">
       <c r="A543" t="inlineStr">
         <is>
           <t>A 46853-2023</t>
@@ -34617,7 +34617,7 @@
         <v>45199</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34668,6 +34668,187 @@
         <v>0</v>
       </c>
       <c r="R543" s="2" t="inlineStr"/>
+    </row>
+    <row r="544" ht="15" customHeight="1">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>A 47048-2023</t>
+        </is>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C544" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N544" t="n">
+        <v>0</v>
+      </c>
+      <c r="O544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R544" s="2" t="inlineStr"/>
+    </row>
+    <row r="545" ht="15" customHeight="1">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>A 47162-2023</t>
+        </is>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C545" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N545" t="n">
+        <v>0</v>
+      </c>
+      <c r="O545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R545" s="2" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>A 47166-2023</t>
+        </is>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C546" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>GÄLLIVARE</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" t="n">
+        <v>0</v>
+      </c>
+      <c r="O546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R546" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45190</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45196</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45196</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45197</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45197</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45199</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45199</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>45199</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45201</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45201</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45201</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45190</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45196</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45196</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45197</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45197</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45199</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45199</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>45199</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45201</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45201</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45201</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -572,7 +572,7 @@
         <v>43676</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43959</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43962</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43927</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43998</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43636</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>43500</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44803</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44479</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44797</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45012</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45080</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45093</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43434</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43671</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43756</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44958</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>45150</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43500</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43504</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>43621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43698</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44860</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44931</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45096</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45103</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43350</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43354</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43360</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43378</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43388</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43388</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43388</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43411</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43413</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43413</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43416</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43423</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43423</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43427</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43430</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43447</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43451</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43451</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43452</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43467</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43468</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43469</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43473</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43487</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43487</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43500</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43502</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43511</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43511</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43530</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43538</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43542</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43544</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43569</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43578</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43595</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43595</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43612</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43613</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43613</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43614</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43621</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43621</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43626</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>43628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43628</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>43634</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43636</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43647</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43647</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43648</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43654</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43668</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43675</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>43676</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43676</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43684</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>43686</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43689</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43689</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43690</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43691</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43706</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>43706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43718</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43724</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43724</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43724</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43734</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43734</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43739</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43740</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43748</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43752</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43752</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43753</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43754</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43754</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>43755</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43759</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43759</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43766</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43766</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43766</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43766</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43766</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43766</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43768</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43782</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43795</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43817</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>43843</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>43843</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>43843</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43843</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>43843</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>43843</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>43844</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43914</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43914</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43916</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>43916</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>43916</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>43919</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>43958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43958</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>43958</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>43958</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>43959</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>43987</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44004</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44006</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>44025</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44026</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44050</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44055</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44058</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44058</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44070</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44070</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44081</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44081</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44091</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44092</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44095</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44104</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44109</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44113</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44113</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44116</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44116</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44130</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44130</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44144</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44144</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44200</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44214</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44214</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44214</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44272</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44321</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44321</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44356</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44358</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44358</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44366</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44399</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44405</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44405</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44405</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44405</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44410</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44431</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44431</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44432</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44463</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44473</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44479</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44479</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44488</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44494</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44505</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44505</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44516</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>44518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44522</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44522</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>44525</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44529</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44543</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44550</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44550</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44550</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44551</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44575</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44587</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44607</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44607</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44616</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44624</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44636</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44651</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44672</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44684</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44697</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44712</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44712</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44712</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44726</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44750</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44769</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44775</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44783</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44792</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>44795</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44795</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44798</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44799</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44799</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>44819</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44823</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>44824</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>44854</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44854</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44854</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44854</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44854</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44854</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44854</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44860</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44861</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44862</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44883</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44886</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44886</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44895</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44895</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44896</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44900</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44904</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44904</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44904</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44911</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44916</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44916</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44922</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44923</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44923</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44924</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44924</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44931</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44937</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44942</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44942</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44953</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44953</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44953</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44953</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44953</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44958</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44959</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44959</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44960</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44960</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44960</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44980</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>44980</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44980</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44980</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44980</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44980</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>44986</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>44992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45015</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45027</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45030</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45033</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45033</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45050</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45051</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45062</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45063</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45065</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45079</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45086</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45086</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45086</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45089</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         <v>45096</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45096</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45096</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45103</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>45104</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45110</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>45112</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45117</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45117</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>45117</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45117</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45127</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45142</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45146</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45147</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45150</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45150</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45150</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45154</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45162</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45163</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45163</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>45163</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33769,7 +33769,7 @@
         <v>45170</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45170</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45181</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45181</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45190</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34141,7 +34141,7 @@
         <v>45196</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>45196</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45197</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45197</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45199</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45199</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>45199</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45201</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45201</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45201</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
